--- a/Manual Project - Blaupunkt car accessories.xlsx
+++ b/Manual Project - Blaupunkt car accessories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\Documents\Software Testing\Test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\Documents\Software Testing\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A4500-74BE-42A0-9606-0ACC821DC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FC99E-154D-468B-9FD8-5B91E70ED8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{145B1210-081B-4DCF-9ADA-EF79D67A7E52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{145B1210-081B-4DCF-9ADA-EF79D67A7E52}"/>
   </bookViews>
   <sheets>
     <sheet name="M1 HomePage &amp; Navigation" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="M3 ProductDetail Page" sheetId="4" r:id="rId3"/>
     <sheet name="M4 Checkout &amp; Payment" sheetId="5" r:id="rId4"/>
     <sheet name="M5 Perfomance &amp; UI and SEO" sheetId="6" r:id="rId5"/>
-    <sheet name="Bug report" sheetId="2" r:id="rId6"/>
-    <sheet name="Bug Distribution Report" sheetId="7" r:id="rId7"/>
+    <sheet name="M6 Login Page" sheetId="8" r:id="rId6"/>
+    <sheet name="M7 Cart" sheetId="9" r:id="rId7"/>
+    <sheet name="Bug report" sheetId="2" r:id="rId8"/>
+    <sheet name="Bug Distribution Report" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,14 +44,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="583">
   <si>
     <t>Version of the application :</t>
   </si>
   <si>
-    <t>Module name : Registration Page</t>
-  </si>
-  <si>
     <t>Tested by : Adarsh S Nair</t>
   </si>
   <si>
@@ -927,6 +926,873 @@
   </si>
   <si>
     <t>Date : 16/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module name : Login Page </t>
+  </si>
+  <si>
+    <t>Valid email / Valid password</t>
+  </si>
+  <si>
+    <t>Enter invalid email and valid password</t>
+  </si>
+  <si>
+    <t>Blank email / Valid password</t>
+  </si>
+  <si>
+    <t>Valid email / Blank password</t>
+  </si>
+  <si>
+    <t>Enter wrong email format</t>
+  </si>
+  <si>
+    <t>Login should fail</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert(1)&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Script should not execute</t>
+  </si>
+  <si>
+    <t>Short password</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Click login button</t>
+  </si>
+  <si>
+    <t>Valid credentials</t>
+  </si>
+  <si>
+    <t>Verify valid login</t>
+  </si>
+  <si>
+    <t>Enter valid email and password</t>
+  </si>
+  <si>
+    <t>User logs in successfully</t>
+  </si>
+  <si>
+    <t>Logged in successfully</t>
+  </si>
+  <si>
+    <t>Verify invalid password</t>
+  </si>
+  <si>
+    <t>Enter valid email and wrong password</t>
+  </si>
+  <si>
+    <t>Valid email / Wrong password</t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>Verify invalid email</t>
+  </si>
+  <si>
+    <t>Wrong email / Valid password</t>
+  </si>
+  <si>
+    <t>Verify empty email</t>
+  </si>
+  <si>
+    <t>Leave email blank</t>
+  </si>
+  <si>
+    <t>Email required message</t>
+  </si>
+  <si>
+    <t>Message displayed</t>
+  </si>
+  <si>
+    <t>Verify empty password</t>
+  </si>
+  <si>
+    <t>Leave password blank</t>
+  </si>
+  <si>
+    <t>Password required message</t>
+  </si>
+  <si>
+    <t>Verify blank credentials</t>
+  </si>
+  <si>
+    <t>Leave both fields blank</t>
+  </si>
+  <si>
+    <t>Blank / Blank</t>
+  </si>
+  <si>
+    <t>Validation messages</t>
+  </si>
+  <si>
+    <t>Validation displayed</t>
+  </si>
+  <si>
+    <t>Verify invalid email format</t>
+  </si>
+  <si>
+    <t>user@@mail</t>
+  </si>
+  <si>
+    <t>Invalid email message</t>
+  </si>
+  <si>
+    <t>Verify SQL injection</t>
+  </si>
+  <si>
+    <t>Enter SQL injection input</t>
+  </si>
+  <si>
+    <t>' OR '1'='1</t>
+  </si>
+  <si>
+    <t>Verify XSS attack</t>
+  </si>
+  <si>
+    <t>Enter script input</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Verify uppercase email</t>
+  </si>
+  <si>
+    <t>Enter uppercase email</t>
+  </si>
+  <si>
+    <t>USER@MAIL.COM</t>
+  </si>
+  <si>
+    <t>Login works</t>
+  </si>
+  <si>
+    <t>Logged in</t>
+  </si>
+  <si>
+    <t>Verify wrong case password</t>
+  </si>
+  <si>
+    <t>Enter wrong case password</t>
+  </si>
+  <si>
+    <t>Valid email / wrong case</t>
+  </si>
+  <si>
+    <t>Login fails</t>
+  </si>
+  <si>
+    <t>Verify special char password</t>
+  </si>
+  <si>
+    <t>Enter special char password</t>
+  </si>
+  <si>
+    <t>Valid email / P@ssw0rd</t>
+  </si>
+  <si>
+    <t>Verify forgot password link</t>
+  </si>
+  <si>
+    <t>Click forgot password</t>
+  </si>
+  <si>
+    <t>Navigate to reset page</t>
+  </si>
+  <si>
+    <t>Redirected</t>
+  </si>
+  <si>
+    <t>Verify login button click</t>
+  </si>
+  <si>
+    <t>Login triggered</t>
+  </si>
+  <si>
+    <t>Triggered</t>
+  </si>
+  <si>
+    <t>Verify tab navigation</t>
+  </si>
+  <si>
+    <t>Use tab key</t>
+  </si>
+  <si>
+    <t>Moves correctly</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Verify session timeout</t>
+  </si>
+  <si>
+    <t>Login and wait</t>
+  </si>
+  <si>
+    <t>Session expires</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Verify logout</t>
+  </si>
+  <si>
+    <t>Login and logout</t>
+  </si>
+  <si>
+    <t>Logout successful</t>
+  </si>
+  <si>
+    <t>Logged out</t>
+  </si>
+  <si>
+    <t>Verify long email</t>
+  </si>
+  <si>
+    <t>Enter long email</t>
+  </si>
+  <si>
+    <t>256 char email</t>
+  </si>
+  <si>
+    <t>Validation message</t>
+  </si>
+  <si>
+    <t>Verify short password</t>
+  </si>
+  <si>
+    <t>Enter short password</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Verify multiple failed login</t>
+  </si>
+  <si>
+    <t>Enter wrong password multiple times</t>
+  </si>
+  <si>
+    <t>Valid email / wrong password</t>
+  </si>
+  <si>
+    <t>Account lock or error</t>
+  </si>
+  <si>
+    <t>M6_TC_001</t>
+  </si>
+  <si>
+    <t>M6_TC_002</t>
+  </si>
+  <si>
+    <t>M6_TC_003</t>
+  </si>
+  <si>
+    <t>M6_TC_004</t>
+  </si>
+  <si>
+    <t>M6_TC_005</t>
+  </si>
+  <si>
+    <t>M6_TC_006</t>
+  </si>
+  <si>
+    <t>M6_TC_007</t>
+  </si>
+  <si>
+    <t>M6_TC_008</t>
+  </si>
+  <si>
+    <t>M6_TC_009</t>
+  </si>
+  <si>
+    <t>M6_TC_010</t>
+  </si>
+  <si>
+    <t>M6_TC_011</t>
+  </si>
+  <si>
+    <t>M6_TC_012</t>
+  </si>
+  <si>
+    <t>M6_TC_013</t>
+  </si>
+  <si>
+    <t>M6_TC_014</t>
+  </si>
+  <si>
+    <t>M6_TC_015</t>
+  </si>
+  <si>
+    <t>M6_TC_016</t>
+  </si>
+  <si>
+    <t>M6_TC_017</t>
+  </si>
+  <si>
+    <t>M6_TC_018</t>
+  </si>
+  <si>
+    <t>M6_TC_019</t>
+  </si>
+  <si>
+    <t>M6_TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module name : </t>
+  </si>
+  <si>
+    <t>BP_DEF_015</t>
+  </si>
+  <si>
+    <t>Sql injection</t>
+  </si>
+  <si>
+    <t>Login passed</t>
+  </si>
+  <si>
+    <t>BP_DEF_016</t>
+  </si>
+  <si>
+    <t>Uppercase in email adderss</t>
+  </si>
+  <si>
+    <t>Should show "Enter lowercase"</t>
+  </si>
+  <si>
+    <t>Enter "USER@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>BP_DEF_017</t>
+  </si>
+  <si>
+    <t>Should show minimum 8 charectors needed</t>
+  </si>
+  <si>
+    <t>Verify login with leading spaces</t>
+  </si>
+  <si>
+    <t>Enter email with leading space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user@mail.com</t>
+  </si>
+  <si>
+    <t>Spaces should be trimmed and login successful</t>
+  </si>
+  <si>
+    <t>Verify login with trailing spaces</t>
+  </si>
+  <si>
+    <t>Enter password with trailing space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t>Spaces should be trimmed</t>
+  </si>
+  <si>
+    <t>Spaces trimmed automatically</t>
+  </si>
+  <si>
+    <t>Verify login using Enter key</t>
+  </si>
+  <si>
+    <t>Enter credentials and press Enter</t>
+  </si>
+  <si>
+    <t>Login should trigger</t>
+  </si>
+  <si>
+    <t>Login triggered successfully</t>
+  </si>
+  <si>
+    <t>Verify copy-paste in password field</t>
+  </si>
+  <si>
+    <t>Copy and paste password</t>
+  </si>
+  <si>
+    <t>Login should work correctly</t>
+  </si>
+  <si>
+    <t>Login successful</t>
+  </si>
+  <si>
+    <t>Verify login after password reset</t>
+  </si>
+  <si>
+    <t>Reset password and login</t>
+  </si>
+  <si>
+    <t>Updated password</t>
+  </si>
+  <si>
+    <t>Login successful with new password</t>
+  </si>
+  <si>
+    <t>Verify error message alignment</t>
+  </si>
+  <si>
+    <t>Enter invalid credentials</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Error message properly aligned</t>
+  </si>
+  <si>
+    <t>Error message displayed correctly</t>
+  </si>
+  <si>
+    <t>Verify multiple rapid clicks on login button</t>
+  </si>
+  <si>
+    <t>Click login multiple times</t>
+  </si>
+  <si>
+    <t>Only one request processed</t>
+  </si>
+  <si>
+    <t>Only one login request processed</t>
+  </si>
+  <si>
+    <t>Verify login on different browser</t>
+  </si>
+  <si>
+    <t>Login using Edge/Firefox</t>
+  </si>
+  <si>
+    <t>Login should work</t>
+  </si>
+  <si>
+    <t>Login successful in other browser</t>
+  </si>
+  <si>
+    <t>Verify login after clearing cache</t>
+  </si>
+  <si>
+    <t>Clear cache and login</t>
+  </si>
+  <si>
+    <t>Login should work normally</t>
+  </si>
+  <si>
+    <t>Login successful after clearing cache</t>
+  </si>
+  <si>
+    <t>Verify password masking</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Any password</t>
+  </si>
+  <si>
+    <t>Password should be masked</t>
+  </si>
+  <si>
+    <t>Password masked properly</t>
+  </si>
+  <si>
+    <t>Spacesnot  trimmed and login unsuccessful</t>
+  </si>
+  <si>
+    <t>BP_DEF_018</t>
+  </si>
+  <si>
+    <t>Login with spaces in gmail address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should trim the gmail address and login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter ab c@g mail.com </t>
+  </si>
+  <si>
+    <t>Copy paste not working in password field</t>
+  </si>
+  <si>
+    <t>M6_TC_021</t>
+  </si>
+  <si>
+    <t>M6_TC_022</t>
+  </si>
+  <si>
+    <t>M6_TC_023</t>
+  </si>
+  <si>
+    <t>M6_TC_024</t>
+  </si>
+  <si>
+    <t>M6_TC_025</t>
+  </si>
+  <si>
+    <t>M6_TC_026</t>
+  </si>
+  <si>
+    <t>M6_TC_027</t>
+  </si>
+  <si>
+    <t>M6_TC_028</t>
+  </si>
+  <si>
+    <t>M6_TC_029</t>
+  </si>
+  <si>
+    <t>M6_TC_030</t>
+  </si>
+  <si>
+    <t>Copy-paste in password field</t>
+  </si>
+  <si>
+    <t>BP_DEF_019</t>
+  </si>
+  <si>
+    <t>Copy paste</t>
+  </si>
+  <si>
+    <t>Module name : Cart</t>
+  </si>
+  <si>
+    <t>Verify adding product to cart</t>
+  </si>
+  <si>
+    <t>Add product from product page</t>
+  </si>
+  <si>
+    <t>Valid product</t>
+  </si>
+  <si>
+    <t>Product added to cart</t>
+  </si>
+  <si>
+    <t>Verify cart icon count update</t>
+  </si>
+  <si>
+    <t>Add 1 product</t>
+  </si>
+  <si>
+    <t>1 product</t>
+  </si>
+  <si>
+    <t>Cart count increases</t>
+  </si>
+  <si>
+    <t>Count updated correctly</t>
+  </si>
+  <si>
+    <t>Verify multiple products addition</t>
+  </si>
+  <si>
+    <t>Add 2 products</t>
+  </si>
+  <si>
+    <t>Product A &amp; B</t>
+  </si>
+  <si>
+    <t>Both products displayed</t>
+  </si>
+  <si>
+    <t>Verify quantity increase</t>
+  </si>
+  <si>
+    <t>Increase quantity to 2</t>
+  </si>
+  <si>
+    <t>Qty = 2</t>
+  </si>
+  <si>
+    <t>Total price updates</t>
+  </si>
+  <si>
+    <t>Total updated correctly</t>
+  </si>
+  <si>
+    <t>Verify quantity decrease</t>
+  </si>
+  <si>
+    <t>Reduce quantity to 1</t>
+  </si>
+  <si>
+    <t>Qty = 1</t>
+  </si>
+  <si>
+    <t>Total price reduces</t>
+  </si>
+  <si>
+    <t>Reduced correctly</t>
+  </si>
+  <si>
+    <t>Verify remove product</t>
+  </si>
+  <si>
+    <t>Click remove button</t>
+  </si>
+  <si>
+    <t>Remove item</t>
+  </si>
+  <si>
+    <t>Verify empty cart message</t>
+  </si>
+  <si>
+    <t>Remove all items</t>
+  </si>
+  <si>
+    <t>No items</t>
+  </si>
+  <si>
+    <t>Empty cart message displayed</t>
+  </si>
+  <si>
+    <t>Verify subtotal calculation</t>
+  </si>
+  <si>
+    <t>Add multiple products</t>
+  </si>
+  <si>
+    <t>2 products</t>
+  </si>
+  <si>
+    <t>Subtotal correct</t>
+  </si>
+  <si>
+    <t>Verify tax calculation</t>
+  </si>
+  <si>
+    <t>Add ₹1000 product</t>
+  </si>
+  <si>
+    <t>₹1000</t>
+  </si>
+  <si>
+    <t>Tax calculated correctly</t>
+  </si>
+  <si>
+    <t>Verify grand total calculation</t>
+  </si>
+  <si>
+    <t>Add multiple items</t>
+  </si>
+  <si>
+    <t>Multiple items</t>
+  </si>
+  <si>
+    <t>Grand total correct</t>
+  </si>
+  <si>
+    <t>Click proceed to checkout</t>
+  </si>
+  <si>
+    <t>Items in cart</t>
+  </si>
+  <si>
+    <t>Redirect to checkout</t>
+  </si>
+  <si>
+    <t>Redirected successfully</t>
+  </si>
+  <si>
+    <t>Verify cart persistence after refresh</t>
+  </si>
+  <si>
+    <t>Refresh cart page</t>
+  </si>
+  <si>
+    <t>Items added</t>
+  </si>
+  <si>
+    <t>Items remain in cart</t>
+  </si>
+  <si>
+    <t>Items retained</t>
+  </si>
+  <si>
+    <t>Verify cart persistence after login</t>
+  </si>
+  <si>
+    <t>Logout &amp; login again</t>
+  </si>
+  <si>
+    <t>Valid user</t>
+  </si>
+  <si>
+    <t>Cart retained</t>
+  </si>
+  <si>
+    <t>Verify maximum quantity limit</t>
+  </si>
+  <si>
+    <t>Increase beyond limit</t>
+  </si>
+  <si>
+    <t>Qty &gt; allowed</t>
+  </si>
+  <si>
+    <t>System restricts quantity</t>
+  </si>
+  <si>
+    <t>Restriction applied</t>
+  </si>
+  <si>
+    <t>Verify invalid quantity input</t>
+  </si>
+  <si>
+    <t>Enter negative value</t>
+  </si>
+  <si>
+    <t>Qty = -1</t>
+  </si>
+  <si>
+    <t>Validation error shown</t>
+  </si>
+  <si>
+    <t>Verify price update after quantity change</t>
+  </si>
+  <si>
+    <t>Change quantity to 3</t>
+  </si>
+  <si>
+    <t>Qty = 3</t>
+  </si>
+  <si>
+    <t>Price updates instantly</t>
+  </si>
+  <si>
+    <t>Updated correctly</t>
+  </si>
+  <si>
+    <t>Verify valid coupon code</t>
+  </si>
+  <si>
+    <t>Apply valid coupon</t>
+  </si>
+  <si>
+    <t>SAVE10</t>
+  </si>
+  <si>
+    <t>Discount applied</t>
+  </si>
+  <si>
+    <t>Verify invalid coupon code</t>
+  </si>
+  <si>
+    <t>Apply invalid coupon</t>
+  </si>
+  <si>
+    <t>WRONG10</t>
+  </si>
+  <si>
+    <t>Error message shown</t>
+  </si>
+  <si>
+    <t>Verify continue shopping button</t>
+  </si>
+  <si>
+    <t>Click continue shopping</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Redirect to product page</t>
+  </si>
+  <si>
+    <t>Verify cart page UI alignment</t>
+  </si>
+  <si>
+    <t>Open cart page</t>
+  </si>
+  <si>
+    <t>Proper alignment</t>
+  </si>
+  <si>
+    <t>UI not properly aligned</t>
+  </si>
+  <si>
+    <t>Button working properly</t>
+  </si>
+  <si>
+    <t>Tax correctly  calculated</t>
+  </si>
+  <si>
+    <t>M7_TC_001</t>
+  </si>
+  <si>
+    <t>M7_TC_002</t>
+  </si>
+  <si>
+    <t>M7_TC_003</t>
+  </si>
+  <si>
+    <t>M7_TC_004</t>
+  </si>
+  <si>
+    <t>M7_TC_005</t>
+  </si>
+  <si>
+    <t>M7_TC_006</t>
+  </si>
+  <si>
+    <t>M7_TC_007</t>
+  </si>
+  <si>
+    <t>M7_TC_008</t>
+  </si>
+  <si>
+    <t>M7_TC_009</t>
+  </si>
+  <si>
+    <t>M7_TC_010</t>
+  </si>
+  <si>
+    <t>M7_TC_011</t>
+  </si>
+  <si>
+    <t>M7_TC_012</t>
+  </si>
+  <si>
+    <t>M7_TC_013</t>
+  </si>
+  <si>
+    <t>M7_TC_014</t>
+  </si>
+  <si>
+    <t>M7_TC_015</t>
+  </si>
+  <si>
+    <t>M7_TC_016</t>
+  </si>
+  <si>
+    <t>M7_TC_017</t>
+  </si>
+  <si>
+    <t>M7_TC_018</t>
+  </si>
+  <si>
+    <t>M7_TC_019</t>
+  </si>
+  <si>
+    <t>M7_TC_020</t>
+  </si>
+  <si>
+    <t>BP_DEF_020</t>
+  </si>
+  <si>
+    <t>Cart page UI alignment</t>
+  </si>
+  <si>
+    <t>UI should align correctly</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,6 +1905,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1052,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1069,7 +1953,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1077,6 +1973,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1278,13 +2180,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,13 +2448,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,7 +4073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E316C41-AC5A-413B-B98D-D22773032897}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3180,288 +4082,288 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3498,277 +4400,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3805,172 +4707,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4007,277 +4909,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +5201,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,382 +5216,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4707,11 +5609,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E61A3D8-3630-415B-A03B-52143500F6DE}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F3AB67-FFFA-4E57-A7F3-25F9D1E9743A}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DFE748-2670-471F-884E-E7212F9E5042}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E61A3D8-3630-415B-A03B-52143500F6DE}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,457 +6970,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="I16" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21">
+        <v>123</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5192,12 +7590,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD127B81-A5B5-4775-8B03-255270A1E3A1}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,63 +7606,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5272,10 +7670,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
